--- a/DCF Models/LIND.xlsx
+++ b/DCF Models/LIND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\DCF Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16491CF7-6C4C-4BFE-9C52-F7CB50AD8A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC1B2D-887A-4910-AE08-68CE7B551CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="5730" windowWidth="26730" windowHeight="15045" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
+    <workbookView xWindow="3750" yWindow="3720" windowWidth="32700" windowHeight="15045" activeTab="1" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Price</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t xml:space="preserve">Although we believe we can access sufficient liquidity to fund our maintenance, investments, including new ship construction and vessel modification, and obligations as expected, there can be no assurances to that effect. </t>
+  </si>
+  <si>
+    <t>EBITDA</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>17808</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -436,7 +439,7 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -778,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B3E6B5-2ED0-4ACF-895E-E286D10A7127}">
   <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1017,13 +1020,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44922598-A76D-432E-8D6B-EF22B15EDFE4}">
-  <dimension ref="A2:DU39"/>
+  <dimension ref="A2:DU41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,23 +1448,23 @@
         <v>448.32600000000002</v>
       </c>
       <c r="X3" s="3">
-        <f>W3*(1+X26)</f>
+        <f t="shared" ref="X3:AG3" si="0">W3*(1+X28)</f>
         <v>627.65639999999996</v>
       </c>
       <c r="Y3" s="3">
-        <f>X3*(1+Y26)</f>
+        <f t="shared" si="0"/>
         <v>784.57049999999992</v>
       </c>
       <c r="Z3" s="3">
-        <f>Y3*(1+Z26)</f>
+        <f t="shared" si="0"/>
         <v>878.71896000000004</v>
       </c>
       <c r="AA3" s="3">
-        <f>Z3*(1+AA26)</f>
+        <f t="shared" si="0"/>
         <v>984.1652352000001</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" ref="Y3:AG3" si="0">AA3*(1+AB26)</f>
+        <f t="shared" si="0"/>
         <v>1062.8984540160002</v>
       </c>
       <c r="AC3" s="3">
@@ -1543,7 +1546,7 @@
         <v>295.60199999999998</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" ref="X4:AG4" si="1">W4*(1+X39)</f>
+        <f t="shared" ref="X4:AG4" si="1">W4*(1+X41)</f>
         <v>399.74051216851814</v>
       </c>
       <c r="Y4" s="2">
@@ -1771,7 +1774,7 @@
         <v>150.625</v>
       </c>
       <c r="X6" s="2">
-        <f t="shared" ref="X6:AG6" si="5">X3*X37</f>
+        <f t="shared" ref="X6:AG6" si="5">X3*X39</f>
         <v>200.85004799999999</v>
       </c>
       <c r="Y6" s="2">
@@ -1869,7 +1872,7 @@
         <v>44.034000000000006</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" ref="X7:AG7" si="6">X3*X35</f>
+        <f t="shared" ref="X7:AG7" si="6">X3*X37</f>
         <v>56.489075999999997</v>
       </c>
       <c r="Y7" s="2">
@@ -2096,11 +2099,11 @@
         <v>-34.869</v>
       </c>
       <c r="X10" s="2">
-        <f>W21*W28</f>
+        <f t="shared" ref="X10:AG10" si="10">W21*W30</f>
         <v>-40.142956838784563</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" ref="Y10:AG10" si="10">X21*X28</f>
+        <f t="shared" si="10"/>
         <v>-47.019863877508321</v>
       </c>
       <c r="Z10" s="2">
@@ -2380,11 +2383,11 @@
         <v>2.351</v>
       </c>
       <c r="X13" s="2">
-        <f>X12*X29</f>
+        <f t="shared" ref="X13:AG13" si="13">X12*X31</f>
         <v>-1.3913238601460547</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" ref="Y13:AG13" si="13">Y12*Y29</f>
+        <f t="shared" si="13"/>
         <v>-1.0717268329778415</v>
       </c>
       <c r="Z13" s="2">
@@ -3325,696 +3328,676 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:125" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="P23" s="2">
+        <f>11.045+41.879</f>
+        <v>52.923999999999999</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>1.75+1.565</f>
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="R23" s="2">
+        <f>1.75+0.418</f>
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="S23" s="2">
+        <f>171.625+6.49</f>
+        <v>178.11500000000001</v>
+      </c>
+      <c r="T23" s="2">
+        <f>2+2.372</f>
+        <v>4.3719999999999999</v>
+      </c>
+      <c r="U23" s="2">
+        <f>2.842+6.97</f>
+        <v>9.8119999999999994</v>
+      </c>
+      <c r="V23" s="2">
+        <f>5.957+3.135</f>
+        <v>9.0919999999999987</v>
+      </c>
       <c r="DU23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:125" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="2">
-        <v>3.9889999999999999</v>
-      </c>
-      <c r="P24" s="2">
-        <f>11.045+41.879</f>
-        <v>52.923999999999999</v>
-      </c>
-      <c r="Q24" s="2">
-        <f>1.75+1.565</f>
-        <v>3.3149999999999999</v>
-      </c>
-      <c r="R24" s="2">
-        <f>1.75+0.418</f>
-        <v>2.1680000000000001</v>
-      </c>
-      <c r="S24" s="2">
-        <f>171.625+6.49</f>
-        <v>178.11500000000001</v>
-      </c>
-      <c r="T24" s="2">
-        <f>2+2.372</f>
-        <v>4.3719999999999999</v>
-      </c>
-      <c r="U24" s="2">
-        <f>2.842+6.97</f>
-        <v>9.8119999999999994</v>
-      </c>
-      <c r="V24" s="2">
-        <f>5.957+3.135</f>
-        <v>9.0919999999999987</v>
-      </c>
-      <c r="DU24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="DU25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:125" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7">
-        <f t="shared" ref="P26:W26" si="31">P3/O3-1</f>
-        <v>5.8077487037625053E-2</v>
-      </c>
-      <c r="Q26" s="7">
+    <row r="24" spans="1:125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:125" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C9+C7</f>
+        <v>-22.816999999999997</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="31">D9+D7</f>
+        <v>-24.374000000000002</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="31"/>
-        <v>0.15411100792913768</v>
-      </c>
-      <c r="R26" s="7">
+        <v>-8.3129999999999953</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="31"/>
-        <v>9.9683922986143925E-2</v>
-      </c>
-      <c r="S26" s="7">
+        <v>-15.802000000000007</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="31"/>
-        <v>0.16221144898387996</v>
-      </c>
-      <c r="T26" s="7">
+        <v>-23.066000000000013</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="31"/>
-        <v>0.10769240703313154</v>
-      </c>
-      <c r="U26" s="7">
+        <v>-8.1290000000000067</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="31"/>
-        <v>-0.75995802850563998</v>
-      </c>
-      <c r="V26" s="7">
-        <f t="shared" si="31"/>
-        <v>0.7862329399193746</v>
-      </c>
-      <c r="W26" s="7">
-        <f t="shared" si="31"/>
-        <v>2.0476184002120905</v>
-      </c>
-      <c r="X26" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AD26" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AE26" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AF26" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AG26" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="DU26" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>16.646999999999991</v>
+      </c>
+      <c r="J25" s="2">
+        <f>J9+J7</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <f>O9+O7</f>
+        <v>41.691000000000003</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" ref="P25:V25" si="32">P9+P7</f>
+        <v>27.147000000000013</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="32"/>
+        <v>32.400999999999996</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="32"/>
+        <v>28.094999999999999</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="32"/>
+        <v>46.103999999999985</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="32"/>
+        <v>58.979999999999976</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="32"/>
+        <v>-56.314000000000007</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="32"/>
+        <v>-71.305999999999983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:125" x14ac:dyDescent="0.25">
       <c r="DU27" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:125" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:125" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" ref="P28:W28" si="33">P3/O3-1</f>
+        <v>5.8077487037625053E-2</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="33"/>
+        <v>0.15411100792913768</v>
+      </c>
+      <c r="R28" s="7">
+        <f t="shared" si="33"/>
+        <v>9.9683922986143925E-2</v>
+      </c>
+      <c r="S28" s="7">
+        <f t="shared" si="33"/>
+        <v>0.16221144898387996</v>
+      </c>
+      <c r="T28" s="7">
+        <f t="shared" si="33"/>
+        <v>0.10769240703313154</v>
+      </c>
+      <c r="U28" s="7">
+        <f t="shared" si="33"/>
+        <v>-0.75995802850563998</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" si="33"/>
+        <v>0.7862329399193746</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" si="33"/>
+        <v>2.0476184002120905</v>
+      </c>
+      <c r="X28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AG28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="DU28" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="DU29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:125" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P30" s="8">
         <f>P10/O21</f>
         <v>-0.57091975696626907</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q30" s="8">
         <f>Q10/P21</f>
         <v>-0.40662952422942783</v>
       </c>
-      <c r="R28" s="8">
-        <f t="shared" ref="R28:T28" si="32">R10/Q21</f>
+      <c r="R30" s="8">
+        <f t="shared" ref="R30:T30" si="34">R10/Q21</f>
         <v>0.18683912567886543</v>
       </c>
-      <c r="S28" s="8">
-        <f t="shared" si="32"/>
+      <c r="S30" s="8">
+        <f t="shared" si="34"/>
         <v>0.11662592476927881</v>
       </c>
-      <c r="T28" s="8">
-        <f t="shared" si="32"/>
+      <c r="T30" s="8">
+        <f t="shared" si="34"/>
         <v>0.12060893377697947</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U30" s="8">
         <f>U10/T21</f>
         <v>0.11350575689773601</v>
       </c>
-      <c r="V28" s="8">
+      <c r="V30" s="8">
         <f>V10/U21</f>
         <v>8.1808045001414628E-2</v>
       </c>
-      <c r="W28" s="8">
+      <c r="W30" s="8">
         <f>W10/V21</f>
         <v>8.2768983172751678E-2</v>
       </c>
-      <c r="X28" s="8">
+      <c r="X30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="Y28" s="8">
+      <c r="Y30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="Z28" s="8">
+      <c r="Z30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AA28" s="8">
+      <c r="AA30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AB28" s="8">
+      <c r="AB30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AC28" s="8">
+      <c r="AC30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AD28" s="8">
+      <c r="AD30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AE28" s="8">
+      <c r="AE30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AF28" s="8">
+      <c r="AF30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AG28" s="8">
+      <c r="AG30" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="DU28" s="8" t="s">
+      <c r="DU30" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:125" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="31" spans="1:125" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O31" s="8">
         <f>O13/O12</f>
         <v>0.11177644710578839</v>
       </c>
-      <c r="P29" s="8">
-        <f t="shared" ref="P29:W29" si="33">P13/P12</f>
+      <c r="P31" s="8">
+        <f t="shared" ref="P31:W31" si="35">P13/P12</f>
         <v>-0.15496665496665482</v>
       </c>
-      <c r="Q29" s="8">
-        <f t="shared" si="33"/>
+      <c r="Q31" s="8">
+        <f t="shared" si="35"/>
         <v>-1.7176596886741859</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R31" s="8">
         <f>R13/R12</f>
         <v>4.0444803881924809</v>
       </c>
-      <c r="S29" s="8">
-        <f t="shared" si="33"/>
+      <c r="S31" s="8">
+        <f t="shared" si="35"/>
         <v>5.0632911392405125E-2</v>
       </c>
-      <c r="T29" s="8">
-        <f t="shared" si="33"/>
+      <c r="T31" s="8">
+        <f t="shared" si="35"/>
         <v>0.10454957750513211</v>
       </c>
-      <c r="U29" s="8">
-        <f t="shared" si="33"/>
+      <c r="U31" s="8">
+        <f t="shared" si="35"/>
         <v>8.9141152285833844E-2</v>
       </c>
-      <c r="V29" s="8">
-        <f t="shared" si="33"/>
+      <c r="V31" s="8">
+        <f t="shared" si="35"/>
         <v>1.6660202827035904E-2</v>
       </c>
-      <c r="W29" s="8">
-        <f t="shared" si="33"/>
+      <c r="W31" s="8">
+        <f t="shared" si="35"/>
         <v>-2.9143785097125306E-2</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X31" s="8">
         <v>0.02</v>
       </c>
-      <c r="Y29" s="8">
+      <c r="Y31" s="8">
         <v>0.02</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="Z31" s="8">
         <v>0.03</v>
       </c>
-      <c r="AA29" s="8">
+      <c r="AA31" s="8">
         <v>0.03</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AB31" s="8">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AC29" s="8">
+      <c r="AC31" s="8">
         <v>0.04</v>
       </c>
-      <c r="AD29" s="8">
+      <c r="AD31" s="8">
         <v>0.04</v>
       </c>
-      <c r="AE29" s="8">
+      <c r="AE31" s="8">
         <v>0.04</v>
       </c>
-      <c r="AF29" s="8">
+      <c r="AF31" s="8">
         <v>0.04</v>
       </c>
-      <c r="AG29" s="8">
+      <c r="AG31" s="8">
         <v>0.04</v>
       </c>
-      <c r="DU29" s="8" t="s">
+      <c r="DU31" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="DU30" t="s">
+    <row r="32" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="DU32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:125" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+    <row r="33" spans="1:125" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="6">
-        <f t="shared" ref="C31:J31" si="34">C5/C3</f>
+      <c r="C33" s="6">
+        <f t="shared" ref="C33:J33" si="36">C5/C3</f>
         <v>-3.6511235955056178</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="34"/>
+      <c r="D33" s="6">
+        <f t="shared" si="36"/>
         <v>-0.27014280099567672</v>
       </c>
-      <c r="E31" s="6">
-        <f t="shared" si="34"/>
+      <c r="E33" s="6">
+        <f t="shared" si="36"/>
         <v>0.29309997364627099</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="34"/>
+      <c r="F33" s="6">
+        <f t="shared" si="36"/>
         <v>0.21873569881319219</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="34"/>
+      <c r="G33" s="6">
+        <f t="shared" si="36"/>
         <v>0.14591009579955774</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" si="34"/>
+      <c r="H33" s="6">
+        <f t="shared" si="36"/>
         <v>0.31250687493125068</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="34"/>
+      <c r="I33" s="6">
+        <f t="shared" si="36"/>
         <v>0.39512235552516523</v>
       </c>
-      <c r="J31" s="6" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" ref="O31:AG31" si="35">O5/O3</f>
-        <v>0.54650582740011788</v>
-      </c>
-      <c r="P31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.54560087625306575</v>
-      </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.50906142457478154</v>
-      </c>
-      <c r="R31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.49146729504998049</v>
-      </c>
-      <c r="S31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.50362892029935358</v>
-      </c>
-      <c r="T31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.51441312775073589</v>
-      </c>
-      <c r="U31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.1144421778619651</v>
-      </c>
-      <c r="V31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.15378601969994632</v>
-      </c>
-      <c r="W31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.34065389917158506</v>
-      </c>
-      <c r="X31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.36312206460649782</v>
-      </c>
-      <c r="Y31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.37163048091741435</v>
-      </c>
-      <c r="Z31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.42514055666155404</v>
-      </c>
-      <c r="AA31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.47202282469965312</v>
-      </c>
-      <c r="AB31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.49684731792875303</v>
-      </c>
-      <c r="AC31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.50646821328789871</v>
-      </c>
-      <c r="AD31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.51590416202547684</v>
-      </c>
-      <c r="AE31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.52431559928317373</v>
-      </c>
-      <c r="AF31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.53257689131846708</v>
-      </c>
-      <c r="AG31" s="6">
-        <f t="shared" si="35"/>
-        <v>0.54069077660561327</v>
-      </c>
-      <c r="DU31" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:125" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="6">
-        <f t="shared" ref="C32:J32" si="36">C9/C3</f>
-        <v>-17.453370786516853</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" si="36"/>
-        <v>-2.1346128651906198</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="36"/>
-        <v>-0.27339668563101671</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="36"/>
-        <v>-0.45063611678921212</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="36"/>
-        <v>-0.50470154753131935</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="36"/>
-        <v>-0.21235287647123538</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" si="36"/>
-        <v>4.0108300007597519E-2</v>
-      </c>
-      <c r="J32" s="6" t="e">
+      <c r="J33" s="6" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="6">
-        <f t="shared" ref="O32:AG32" si="37">O9/O3</f>
-        <v>0.15330622445946016</v>
-      </c>
-      <c r="P32" s="6">
+      <c r="O33" s="6">
+        <f t="shared" ref="O33:AG33" si="37">O5/O3</f>
+        <v>0.54650582740011788</v>
+      </c>
+      <c r="P33" s="6">
         <f t="shared" si="37"/>
-        <v>7.3824320784818029E-2</v>
-      </c>
-      <c r="Q32" s="6">
+        <v>0.54560087625306575</v>
+      </c>
+      <c r="Q33" s="6">
         <f t="shared" si="37"/>
-        <v>5.7690244526420881E-2</v>
-      </c>
-      <c r="R32" s="6">
+        <v>0.50906142457478154</v>
+      </c>
+      <c r="R33" s="6">
         <f t="shared" si="37"/>
-        <v>4.031459190105964E-2</v>
-      </c>
-      <c r="S32" s="6">
+        <v>0.49146729504998049</v>
+      </c>
+      <c r="S33" s="6">
         <f t="shared" si="37"/>
-        <v>8.1799221267280911E-2</v>
-      </c>
-      <c r="T32" s="6">
+        <v>0.50362892029935358</v>
+      </c>
+      <c r="T33" s="6">
         <f t="shared" si="37"/>
-        <v>9.6799673555043805E-2</v>
-      </c>
-      <c r="U32" s="6">
+        <v>0.51441312775073589</v>
+      </c>
+      <c r="U33" s="6">
         <f t="shared" si="37"/>
-        <v>-1.0733644178930499</v>
-      </c>
-      <c r="V32" s="6">
+        <v>0.1144421778619651</v>
+      </c>
+      <c r="V33" s="6">
         <f t="shared" si="37"/>
-        <v>-0.75340398485456161</v>
-      </c>
-      <c r="W32" s="6">
+        <v>0.15378601969994632</v>
+      </c>
+      <c r="W33" s="6">
         <f t="shared" si="37"/>
-        <v>-9.3536845955844536E-2</v>
-      </c>
-      <c r="X32" s="6">
+        <v>0.34065389917158506</v>
+      </c>
+      <c r="X33" s="6">
         <f t="shared" si="37"/>
-        <v>-4.6877935393502178E-2</v>
-      </c>
-      <c r="Y32" s="6">
+        <v>0.36312206460649782</v>
+      </c>
+      <c r="Y33" s="6">
         <f t="shared" si="37"/>
-        <v>-8.3695190825856351E-3</v>
-      </c>
-      <c r="Z32" s="6">
+        <v>0.37163048091741435</v>
+      </c>
+      <c r="Z33" s="6">
         <f t="shared" si="37"/>
-        <v>4.5140556661554053E-2</v>
-      </c>
-      <c r="AA32" s="6">
+        <v>0.42514055666155404</v>
+      </c>
+      <c r="AA33" s="6">
         <f t="shared" si="37"/>
-        <v>0.11202282469965311</v>
-      </c>
-      <c r="AB32" s="6">
+        <v>0.47202282469965312</v>
+      </c>
+      <c r="AB33" s="6">
         <f t="shared" si="37"/>
-        <v>0.15684731792875301</v>
-      </c>
-      <c r="AC32" s="6">
+        <v>0.49684731792875303</v>
+      </c>
+      <c r="AC33" s="6">
         <f t="shared" si="37"/>
-        <v>0.18646821328789873</v>
-      </c>
-      <c r="AD32" s="6">
+        <v>0.50646821328789871</v>
+      </c>
+      <c r="AD33" s="6">
         <f t="shared" si="37"/>
-        <v>0.21590416202547685</v>
-      </c>
-      <c r="AE32" s="6">
+        <v>0.51590416202547684</v>
+      </c>
+      <c r="AE33" s="6">
         <f t="shared" si="37"/>
-        <v>0.22431559928317379</v>
-      </c>
-      <c r="AF32" s="6">
+        <v>0.52431559928317373</v>
+      </c>
+      <c r="AF33" s="6">
         <f t="shared" si="37"/>
-        <v>0.23257689131846709</v>
-      </c>
-      <c r="AG32" s="6">
+        <v>0.53257689131846708</v>
+      </c>
+      <c r="AG33" s="6">
         <f t="shared" si="37"/>
-        <v>0.24069077660561319</v>
-      </c>
-      <c r="DU32" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:125" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.54069077660561327</v>
+      </c>
       <c r="DU33" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:125" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:J34" si="38">C9/C3</f>
+        <v>-17.453370786516853</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="38"/>
+        <v>-2.1346128651906198</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="38"/>
+        <v>-0.27339668563101671</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="38"/>
+        <v>-0.45063611678921212</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="38"/>
+        <v>-0.50470154753131935</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="38"/>
+        <v>-0.21235287647123538</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="38"/>
+        <v>4.0108300007597519E-2</v>
+      </c>
+      <c r="J34" s="6" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" ref="O34:AG34" si="39">O9/O3</f>
+        <v>0.15330622445946016</v>
+      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="39"/>
+        <v>7.3824320784818029E-2</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="39"/>
+        <v>5.7690244526420881E-2</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" si="39"/>
+        <v>4.031459190105964E-2</v>
+      </c>
+      <c r="S34" s="6">
+        <f t="shared" si="39"/>
+        <v>8.1799221267280911E-2</v>
+      </c>
+      <c r="T34" s="6">
+        <f t="shared" si="39"/>
+        <v>9.6799673555043805E-2</v>
+      </c>
+      <c r="U34" s="6">
+        <f t="shared" si="39"/>
+        <v>-1.0733644178930499</v>
+      </c>
+      <c r="V34" s="6">
+        <f t="shared" si="39"/>
+        <v>-0.75340398485456161</v>
+      </c>
+      <c r="W34" s="6">
+        <f t="shared" si="39"/>
+        <v>-9.3536845955844536E-2</v>
+      </c>
+      <c r="X34" s="6">
+        <f t="shared" si="39"/>
+        <v>-4.6877935393502178E-2</v>
+      </c>
+      <c r="Y34" s="6">
+        <f t="shared" si="39"/>
+        <v>-8.3695190825856351E-3</v>
+      </c>
+      <c r="Z34" s="6">
+        <f t="shared" si="39"/>
+        <v>4.5140556661554053E-2</v>
+      </c>
+      <c r="AA34" s="6">
+        <f t="shared" si="39"/>
+        <v>0.11202282469965311</v>
+      </c>
+      <c r="AB34" s="6">
+        <f t="shared" si="39"/>
+        <v>0.15684731792875301</v>
+      </c>
+      <c r="AC34" s="6">
+        <f t="shared" si="39"/>
+        <v>0.18646821328789873</v>
+      </c>
+      <c r="AD34" s="6">
+        <f t="shared" si="39"/>
+        <v>0.21590416202547685</v>
+      </c>
+      <c r="AE34" s="6">
+        <f t="shared" si="39"/>
+        <v>0.22431559928317379</v>
+      </c>
+      <c r="AF34" s="6">
+        <f t="shared" si="39"/>
+        <v>0.23257689131846709</v>
+      </c>
+      <c r="AG34" s="6">
+        <f t="shared" si="39"/>
+        <v>0.24069077660561319</v>
+      </c>
+      <c r="DU34" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:125" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DU35" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:125" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I36" s="6">
         <f>I7/I20</f>
         <v>2.005977219945039E-2</v>
       </c>
-      <c r="O34" s="6">
-        <f t="shared" ref="O34:AG34" si="38">O7/O20</f>
+      <c r="O36" s="6">
+        <f t="shared" ref="O36:AG36" si="40">O7/O20</f>
         <v>9.2440491331139796E-2</v>
       </c>
-      <c r="P34" s="6">
-        <f t="shared" si="38"/>
+      <c r="P36" s="6">
+        <f t="shared" si="40"/>
         <v>9.2811030525225158E-2</v>
       </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="38"/>
+      <c r="Q36" s="6">
+        <f t="shared" si="40"/>
         <v>9.8906763461414568E-2</v>
       </c>
-      <c r="R34" s="6">
-        <f t="shared" si="38"/>
+      <c r="R36" s="6">
+        <f t="shared" si="40"/>
         <v>6.9141263199840611E-2</v>
       </c>
-      <c r="S34" s="6">
-        <f t="shared" si="38"/>
+      <c r="S36" s="6">
+        <f t="shared" si="40"/>
         <v>7.2620716905786795E-2</v>
       </c>
-      <c r="T34" s="6">
-        <f t="shared" si="38"/>
+      <c r="T36" s="6">
+        <f t="shared" si="40"/>
         <v>7.2022694876883078E-2</v>
       </c>
-      <c r="U34" s="6">
-        <f t="shared" si="38"/>
+      <c r="U36" s="6">
+        <f t="shared" si="40"/>
         <v>6.6471916630410022E-2</v>
       </c>
-      <c r="V34" s="6">
-        <f t="shared" si="38"/>
+      <c r="V36" s="6">
+        <f t="shared" si="40"/>
         <v>7.286815703018705E-2</v>
       </c>
-      <c r="W34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="W36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="X36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="Y36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="Z36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="AA36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="AB36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="AC36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="AD36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="AE36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="AF36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG34" s="6" t="e">
-        <f t="shared" si="38"/>
+      <c r="AG36" s="6" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DU34" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:125" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="7">
-        <f>I7/I3</f>
-        <v>7.4870668517712721E-2</v>
-      </c>
-      <c r="O35" s="7">
-        <f t="shared" ref="O35:W35" si="39">O7/O3</f>
-        <v>5.6767392761225242E-2</v>
-      </c>
-      <c r="P35" s="7">
-        <f t="shared" si="39"/>
-        <v>5.5456342119675206E-2</v>
-      </c>
-      <c r="Q35" s="7">
-        <f t="shared" si="39"/>
-        <v>7.600703126934219E-2</v>
-      </c>
-      <c r="R35" s="7">
-        <f t="shared" si="39"/>
-        <v>6.5105964638429437E-2</v>
-      </c>
-      <c r="S35" s="7">
-        <f t="shared" si="39"/>
-        <v>6.7051082541793927E-2</v>
-      </c>
-      <c r="T35" s="7">
-        <f t="shared" si="39"/>
-        <v>7.5108572094785622E-2</v>
-      </c>
-      <c r="U35" s="7">
-        <f t="shared" si="39"/>
-        <v>0.38957695857011032</v>
-      </c>
-      <c r="V35" s="7">
-        <f t="shared" si="39"/>
-        <v>0.26868197978342295</v>
-      </c>
-      <c r="W35" s="7">
-        <f t="shared" si="39"/>
-        <v>9.8218706923087221E-2</v>
-      </c>
-      <c r="X35" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="Z35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AA35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AB35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AC35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AD35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AE35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AF35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AG35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="DU35" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="DU36" s="7" t="s">
+      <c r="DU36" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4023,105 +4006,77 @@
         <v>42</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="7">
-        <f t="shared" ref="C37:J37" si="40">C6/C3</f>
-        <v>9.167415730337078</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" si="40"/>
-        <v>1.326477138739683</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" si="40"/>
-        <v>0.42196970871378298</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="40"/>
-        <v>0.45978887634621857</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="40"/>
-        <v>0.48586588061901259</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="40"/>
-        <v>0.40192498075019251</v>
+        <v>40</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="40"/>
-        <v>0.28014338699985497</v>
-      </c>
-      <c r="J37" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <f>I7/I3</f>
+        <v>7.4870668517712721E-2</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" ref="O37:W37" si="41">O6/O3</f>
-        <v>0.33643221017943253</v>
+        <f t="shared" ref="O37:W37" si="41">O7/O3</f>
+        <v>5.6767392761225242E-2</v>
       </c>
       <c r="P37" s="7">
         <f t="shared" si="41"/>
-        <v>0.35277281710598374</v>
+        <v>5.5456342119675206E-2</v>
       </c>
       <c r="Q37" s="7">
         <f t="shared" si="41"/>
-        <v>0.37536414877901841</v>
+        <v>7.600703126934219E-2</v>
       </c>
       <c r="R37" s="7">
         <f t="shared" si="41"/>
-        <v>0.38604673851049143</v>
+        <v>6.5105964638429437E-2</v>
       </c>
       <c r="S37" s="7">
         <f t="shared" si="41"/>
-        <v>0.35477861649027875</v>
+        <v>6.7051082541793927E-2</v>
       </c>
       <c r="T37" s="7">
         <f t="shared" si="41"/>
-        <v>0.34250488210090652</v>
+        <v>7.5108572094785622E-2</v>
       </c>
       <c r="U37" s="7">
         <f t="shared" si="41"/>
-        <v>0.79822963718490469</v>
+        <v>0.38957695857011032</v>
       </c>
       <c r="V37" s="7">
         <f t="shared" si="41"/>
-        <v>0.63850802477108504</v>
+        <v>0.26868197978342295</v>
       </c>
       <c r="W37" s="7">
         <f t="shared" si="41"/>
-        <v>0.33597203820434235</v>
+        <v>9.8218706923087221E-2</v>
       </c>
       <c r="X37" s="7">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="Y37" s="7">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="Z37" s="7">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="AA37" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="AB37" s="7">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="AC37" s="7">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="AD37" s="7">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="AE37" s="7">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="AF37" s="7">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="AG37" s="7">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="DU37" s="7" t="s">
         <v>46</v>
@@ -4132,68 +4087,182 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:125" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:125" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" ref="C39:J39" si="42">C6/C3</f>
+        <v>9.167415730337078</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="42"/>
+        <v>1.326477138739683</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="42"/>
+        <v>0.42196970871378298</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="42"/>
+        <v>0.45978887634621857</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="42"/>
+        <v>0.48586588061901259</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="42"/>
+        <v>0.40192498075019251</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="42"/>
+        <v>0.28014338699985497</v>
+      </c>
+      <c r="J39" s="7" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" ref="O39:W39" si="43">O6/O3</f>
+        <v>0.33643221017943253</v>
+      </c>
+      <c r="P39" s="7">
+        <f t="shared" si="43"/>
+        <v>0.35277281710598374</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="43"/>
+        <v>0.37536414877901841</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="43"/>
+        <v>0.38604673851049143</v>
+      </c>
+      <c r="S39" s="7">
+        <f t="shared" si="43"/>
+        <v>0.35477861649027875</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="43"/>
+        <v>0.34250488210090652</v>
+      </c>
+      <c r="U39" s="7">
+        <f t="shared" si="43"/>
+        <v>0.79822963718490469</v>
+      </c>
+      <c r="V39" s="7">
+        <f t="shared" si="43"/>
+        <v>0.63850802477108504</v>
+      </c>
+      <c r="W39" s="7">
+        <f t="shared" si="43"/>
+        <v>0.33597203820434235</v>
+      </c>
+      <c r="X39" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="AG39" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="DU39" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="DU40" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:125" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P41" s="8">
         <v>-9.4435240229997053E-2</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q41" s="8">
         <v>-6.5647869134739523E-3</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R41" s="8">
         <v>0.11992200194995117</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S41" s="8">
         <v>5.532985103501642E-2</v>
       </c>
-      <c r="T39" s="8">
+      <c r="T41" s="8">
         <v>0.15857011915673702</v>
       </c>
-      <c r="U39" s="8">
+      <c r="U41" s="8">
         <v>-0.4678006329113924</v>
       </c>
-      <c r="V39" s="8">
+      <c r="V41" s="8">
         <v>-0.50825033447301915</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W41" s="8">
         <v>1.6599153567110037</v>
       </c>
-      <c r="X39" s="8">
+      <c r="X41" s="8">
         <v>0.35229298911549378</v>
       </c>
-      <c r="Y39" s="8">
+      <c r="Y41" s="8">
         <v>0.23330053563235098</v>
       </c>
-      <c r="Z39" s="8">
+      <c r="Z41" s="8">
         <v>2.4624137528288292E-2</v>
       </c>
-      <c r="AA39" s="8">
+      <c r="AA41" s="8">
         <v>2.8659167364922356E-2</v>
       </c>
-      <c r="AB39" s="8">
+      <c r="AB41" s="8">
         <v>2.9220432356424464E-2</v>
       </c>
-      <c r="AC39" s="8">
+      <c r="AC41" s="8">
         <v>2.9922714342855095E-2</v>
       </c>
-      <c r="AD39" s="8">
+      <c r="AD41" s="8">
         <v>2.992480638286299E-2</v>
       </c>
-      <c r="AE39" s="8">
+      <c r="AE41" s="8">
         <v>3.175565987607909E-2</v>
       </c>
-      <c r="AF39" s="8">
+      <c r="AF41" s="8">
         <v>3.1764471098933988E-2</v>
       </c>
-      <c r="AG39" s="8">
+      <c r="AG41" s="8">
         <v>3.1773302617547738E-2</v>
       </c>
-      <c r="DU39" s="8" t="s">
+      <c r="DU41" s="8" t="s">
         <v>46</v>
       </c>
     </row>
